--- a/HTM_ACQUISITIONS_REGISTRY_TARA_HCS1_H5.xlsx
+++ b/HTM_ACQUISITIONS_REGISTRY_TARA_HCS1_H5.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmarie/Documents/git-repo/idr0015-colin-taraoceans/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C300822-650A-954A-9236-473BBC01174E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="48" windowWidth="11520" windowHeight="9648" tabRatio="317"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14300" tabRatio="317" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registry" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,17 @@
     <sheet name="missing samples" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2581,7 +2597,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
@@ -2836,6 +2852,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2883,7 +2902,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2916,9 +2935,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2951,6 +2987,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3126,96 +3179,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CY292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B175" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="45.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="45.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="34.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" style="2" customWidth="1"/>
     <col min="9" max="9" width="50" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.88671875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="44.109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="37.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="44.1640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="37.1640625" style="2" customWidth="1"/>
     <col min="13" max="14" width="37.6640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="36.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="35.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="35.5" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="33.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="66.109375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="32.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="66.1640625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="32.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="31.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="48.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="48.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="31.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="33.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="38.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="40.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="34.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="33.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="38.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="40.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="34.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="34.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="35.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="35.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="38.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="36.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="39.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="44" width="34.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="38.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="49.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="35.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="35.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="36.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="39.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="44" width="34.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="38.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="49.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="43" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="48.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="49.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="48.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="49.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="43" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="48.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="49.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="48.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="49.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="43" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="48.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="49.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="48.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="49.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="43" style="2" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="48.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="49.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="48.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="49.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="43" style="2" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="48.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="49.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="48.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="49.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="43" style="2" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="48.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="49.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="48.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="49.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="43" style="2" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="48.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="49.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="48.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="49.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="42.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="43" style="2" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="48.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="48.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="86" max="16384" width="45.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3324,7 +3379,7 @@
       <c r="CX1" s="1"/>
       <c r="CY1" s="1"/>
     </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -3433,7 +3488,7 @@
       <c r="CX2" s="1"/>
       <c r="CY2" s="1"/>
     </row>
-    <row r="3" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -3542,7 +3597,7 @@
       <c r="CX3" s="1"/>
       <c r="CY3" s="1"/>
     </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -3651,7 +3706,7 @@
       <c r="CX4" s="1"/>
       <c r="CY4" s="1"/>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -3760,7 +3815,7 @@
       <c r="CX5" s="1"/>
       <c r="CY5" s="1"/>
     </row>
-    <row r="6" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -3869,7 +3924,7 @@
       <c r="CX6" s="1"/>
       <c r="CY6" s="1"/>
     </row>
-    <row r="7" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -3974,7 +4029,7 @@
       <c r="CX7" s="1"/>
       <c r="CY7" s="1"/>
     </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -4081,7 +4136,7 @@
       <c r="CX8" s="1"/>
       <c r="CY8" s="1"/>
     </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -4204,7 +4259,7 @@
       <c r="CX9" s="1"/>
       <c r="CY9" s="1"/>
     </row>
-    <row r="10" spans="1:103" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:103" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>216</v>
       </c>
@@ -4327,7 +4382,7 @@
       <c r="CX10" s="1"/>
       <c r="CY10" s="1"/>
     </row>
-    <row r="11" spans="1:103" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:103" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>847</v>
       </c>
@@ -4451,7 +4506,7 @@
       <c r="CX11" s="1"/>
       <c r="CY11" s="1"/>
     </row>
-    <row r="12" spans="1:103" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:103" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>847</v>
       </c>
@@ -4575,7 +4630,7 @@
       <c r="CX12" s="1"/>
       <c r="CY12" s="1"/>
     </row>
-    <row r="13" spans="1:103" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:103" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
         <v>847</v>
       </c>
@@ -4699,7 +4754,7 @@
       <c r="CX13" s="1"/>
       <c r="CY13" s="1"/>
     </row>
-    <row r="14" spans="1:103" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:103" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>847</v>
       </c>
@@ -4823,7 +4878,7 @@
       <c r="CX14" s="1"/>
       <c r="CY14" s="1"/>
     </row>
-    <row r="15" spans="1:103" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:103" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>847</v>
       </c>
@@ -4947,7 +5002,7 @@
       <c r="CX15" s="1"/>
       <c r="CY15" s="1"/>
     </row>
-    <row r="16" spans="1:103" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:103" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>847</v>
       </c>
@@ -5071,7 +5126,7 @@
       <c r="CX16" s="1"/>
       <c r="CY16" s="1"/>
     </row>
-    <row r="17" spans="1:103" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:103" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
         <v>847</v>
       </c>
@@ -5195,7 +5250,7 @@
       <c r="CX17" s="1"/>
       <c r="CY17" s="1"/>
     </row>
-    <row r="18" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>846</v>
       </c>
@@ -5319,7 +5374,7 @@
       <c r="CX18" s="1"/>
       <c r="CY18" s="1"/>
     </row>
-    <row r="19" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>846</v>
       </c>
@@ -5443,7 +5498,7 @@
       <c r="CX19" s="1"/>
       <c r="CY19" s="1"/>
     </row>
-    <row r="20" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>846</v>
       </c>
@@ -5567,7 +5622,7 @@
       <c r="CX20" s="1"/>
       <c r="CY20" s="1"/>
     </row>
-    <row r="21" spans="1:103" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:103" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>216</v>
       </c>
@@ -5691,7 +5746,7 @@
       <c r="CX21" s="1"/>
       <c r="CY21" s="1"/>
     </row>
-    <row r="22" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>218</v>
       </c>
@@ -5815,7 +5870,7 @@
       <c r="CX22" s="12"/>
       <c r="CY22" s="12"/>
     </row>
-    <row r="23" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>218</v>
       </c>
@@ -5939,7 +5994,7 @@
       <c r="CX23" s="12"/>
       <c r="CY23" s="12"/>
     </row>
-    <row r="24" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>738</v>
       </c>
@@ -6063,7 +6118,7 @@
       <c r="CX24" s="12"/>
       <c r="CY24" s="12"/>
     </row>
-    <row r="25" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>218</v>
       </c>
@@ -6187,7 +6242,7 @@
       <c r="CX25" s="12"/>
       <c r="CY25" s="12"/>
     </row>
-    <row r="26" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>218</v>
       </c>
@@ -6311,7 +6366,7 @@
       <c r="CX26" s="12"/>
       <c r="CY26" s="12"/>
     </row>
-    <row r="27" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>218</v>
       </c>
@@ -6435,7 +6490,7 @@
       <c r="CX27" s="12"/>
       <c r="CY27" s="12"/>
     </row>
-    <row r="28" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>218</v>
       </c>
@@ -6559,7 +6614,7 @@
       <c r="CX28" s="12"/>
       <c r="CY28" s="12"/>
     </row>
-    <row r="29" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>218</v>
       </c>
@@ -6683,7 +6738,7 @@
       <c r="CX29" s="12"/>
       <c r="CY29" s="12"/>
     </row>
-    <row r="30" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>218</v>
       </c>
@@ -6807,7 +6862,7 @@
       <c r="CX30" s="12"/>
       <c r="CY30" s="12"/>
     </row>
-    <row r="31" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>218</v>
       </c>
@@ -6931,7 +6986,7 @@
       <c r="CX31" s="12"/>
       <c r="CY31" s="12"/>
     </row>
-    <row r="32" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>218</v>
       </c>
@@ -7055,7 +7110,7 @@
       <c r="CX32" s="12"/>
       <c r="CY32" s="12"/>
     </row>
-    <row r="33" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:103" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>218</v>
       </c>
@@ -7179,7 +7234,7 @@
       <c r="CX33" s="12"/>
       <c r="CY33" s="12"/>
     </row>
-    <row r="34" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>218</v>
       </c>
@@ -7303,7 +7358,7 @@
       <c r="CX34" s="1"/>
       <c r="CY34" s="1"/>
     </row>
-    <row r="35" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>218</v>
       </c>
@@ -7427,7 +7482,7 @@
       <c r="CX35" s="1"/>
       <c r="CY35" s="1"/>
     </row>
-    <row r="36" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>218</v>
       </c>
@@ -7551,7 +7606,7 @@
       <c r="CX36" s="1"/>
       <c r="CY36" s="1"/>
     </row>
-    <row r="37" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>218</v>
       </c>
@@ -7675,7 +7730,7 @@
       <c r="CX37" s="1"/>
       <c r="CY37" s="1"/>
     </row>
-    <row r="38" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>218</v>
       </c>
@@ -7799,7 +7854,7 @@
       <c r="CX38" s="1"/>
       <c r="CY38" s="1"/>
     </row>
-    <row r="39" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>218</v>
       </c>
@@ -7923,7 +7978,7 @@
       <c r="CX39" s="1"/>
       <c r="CY39" s="1"/>
     </row>
-    <row r="40" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>218</v>
       </c>
@@ -8047,7 +8102,7 @@
       <c r="CX40" s="1"/>
       <c r="CY40" s="1"/>
     </row>
-    <row r="41" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>218</v>
       </c>
@@ -8171,7 +8226,7 @@
       <c r="CX41" s="1"/>
       <c r="CY41" s="1"/>
     </row>
-    <row r="42" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>218</v>
       </c>
@@ -8295,7 +8350,7 @@
       <c r="CX42" s="1"/>
       <c r="CY42" s="1"/>
     </row>
-    <row r="43" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>218</v>
       </c>
@@ -8419,7 +8474,7 @@
       <c r="CX43" s="1"/>
       <c r="CY43" s="1"/>
     </row>
-    <row r="44" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>218</v>
       </c>
@@ -8543,7 +8598,7 @@
       <c r="CX44" s="1"/>
       <c r="CY44" s="1"/>
     </row>
-    <row r="45" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>218</v>
       </c>
@@ -8667,7 +8722,7 @@
       <c r="CX45" s="1"/>
       <c r="CY45" s="1"/>
     </row>
-    <row r="46" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>218</v>
       </c>
@@ -8791,7 +8846,7 @@
       <c r="CX46" s="1"/>
       <c r="CY46" s="1"/>
     </row>
-    <row r="47" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>218</v>
       </c>
@@ -8915,7 +8970,7 @@
       <c r="CX47" s="1"/>
       <c r="CY47" s="1"/>
     </row>
-    <row r="48" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>218</v>
       </c>
@@ -9039,7 +9094,7 @@
       <c r="CX48" s="1"/>
       <c r="CY48" s="1"/>
     </row>
-    <row r="49" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>218</v>
       </c>
@@ -9163,7 +9218,7 @@
       <c r="CX49" s="1"/>
       <c r="CY49" s="1"/>
     </row>
-    <row r="50" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>218</v>
       </c>
@@ -9288,7 +9343,7 @@
       <c r="CX50" s="1"/>
       <c r="CY50" s="1"/>
     </row>
-    <row r="51" spans="1:103" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:103" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="29" t="s">
         <v>218</v>
       </c>
@@ -9412,7 +9467,7 @@
       <c r="CX51" s="34"/>
       <c r="CY51" s="34"/>
     </row>
-    <row r="52" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>218</v>
       </c>
@@ -9536,7 +9591,7 @@
       <c r="CX52" s="1"/>
       <c r="CY52" s="1"/>
     </row>
-    <row r="53" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>218</v>
       </c>
@@ -9660,7 +9715,7 @@
       <c r="CX53" s="1"/>
       <c r="CY53" s="1"/>
     </row>
-    <row r="54" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>218</v>
       </c>
@@ -9785,7 +9840,7 @@
       <c r="CX54" s="1"/>
       <c r="CY54" s="1"/>
     </row>
-    <row r="55" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>218</v>
       </c>
@@ -9909,7 +9964,7 @@
       <c r="CX55" s="1"/>
       <c r="CY55" s="1"/>
     </row>
-    <row r="56" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>218</v>
       </c>
@@ -10033,7 +10088,7 @@
       <c r="CX56" s="1"/>
       <c r="CY56" s="1"/>
     </row>
-    <row r="57" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>218</v>
       </c>
@@ -10158,7 +10213,7 @@
       <c r="CX57" s="1"/>
       <c r="CY57" s="1"/>
     </row>
-    <row r="58" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>218</v>
       </c>
@@ -10283,7 +10338,7 @@
       <c r="CX58" s="1"/>
       <c r="CY58" s="1"/>
     </row>
-    <row r="59" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>218</v>
       </c>
@@ -10407,7 +10462,7 @@
       <c r="CX59" s="1"/>
       <c r="CY59" s="1"/>
     </row>
-    <row r="60" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>218</v>
       </c>
@@ -10531,7 +10586,7 @@
       <c r="CX60" s="1"/>
       <c r="CY60" s="1"/>
     </row>
-    <row r="61" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>218</v>
       </c>
@@ -10655,7 +10710,7 @@
       <c r="CX61" s="1"/>
       <c r="CY61" s="1"/>
     </row>
-    <row r="62" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>218</v>
       </c>
@@ -10779,7 +10834,7 @@
       <c r="CX62" s="1"/>
       <c r="CY62" s="1"/>
     </row>
-    <row r="63" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>218</v>
       </c>
@@ -10903,7 +10958,7 @@
       <c r="CX63" s="1"/>
       <c r="CY63" s="1"/>
     </row>
-    <row r="64" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>218</v>
       </c>
@@ -11027,7 +11082,7 @@
       <c r="CX64" s="1"/>
       <c r="CY64" s="1"/>
     </row>
-    <row r="65" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>218</v>
       </c>
@@ -11151,7 +11206,7 @@
       <c r="CX65" s="1"/>
       <c r="CY65" s="1"/>
     </row>
-    <row r="66" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>218</v>
       </c>
@@ -11275,7 +11330,7 @@
       <c r="CX66" s="1"/>
       <c r="CY66" s="1"/>
     </row>
-    <row r="67" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>218</v>
       </c>
@@ -11399,7 +11454,7 @@
       <c r="CX67" s="1"/>
       <c r="CY67" s="1"/>
     </row>
-    <row r="68" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>218</v>
       </c>
@@ -11523,7 +11578,7 @@
       <c r="CX68" s="1"/>
       <c r="CY68" s="1"/>
     </row>
-    <row r="69" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>218</v>
       </c>
@@ -11647,7 +11702,7 @@
       <c r="CX69" s="1"/>
       <c r="CY69" s="1"/>
     </row>
-    <row r="70" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>218</v>
       </c>
@@ -11771,7 +11826,7 @@
       <c r="CX70" s="1"/>
       <c r="CY70" s="1"/>
     </row>
-    <row r="71" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>218</v>
       </c>
@@ -11895,7 +11950,7 @@
       <c r="CX71" s="1"/>
       <c r="CY71" s="1"/>
     </row>
-    <row r="72" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>218</v>
       </c>
@@ -12019,7 +12074,7 @@
       <c r="CX72" s="1"/>
       <c r="CY72" s="1"/>
     </row>
-    <row r="73" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>218</v>
       </c>
@@ -12143,7 +12198,7 @@
       <c r="CX73" s="1"/>
       <c r="CY73" s="1"/>
     </row>
-    <row r="74" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>218</v>
       </c>
@@ -12267,7 +12322,7 @@
       <c r="CX74" s="1"/>
       <c r="CY74" s="1"/>
     </row>
-    <row r="75" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>218</v>
       </c>
@@ -12391,7 +12446,7 @@
       <c r="CX75" s="1"/>
       <c r="CY75" s="1"/>
     </row>
-    <row r="76" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>218</v>
       </c>
@@ -12515,7 +12570,7 @@
       <c r="CX76" s="1"/>
       <c r="CY76" s="1"/>
     </row>
-    <row r="77" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>218</v>
       </c>
@@ -12639,7 +12694,7 @@
       <c r="CX77" s="1"/>
       <c r="CY77" s="1"/>
     </row>
-    <row r="78" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>218</v>
       </c>
@@ -12763,7 +12818,7 @@
       <c r="CX78" s="1"/>
       <c r="CY78" s="1"/>
     </row>
-    <row r="79" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>218</v>
       </c>
@@ -12887,7 +12942,7 @@
       <c r="CX79" s="1"/>
       <c r="CY79" s="1"/>
     </row>
-    <row r="80" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>218</v>
       </c>
@@ -13011,7 +13066,7 @@
       <c r="CX80" s="1"/>
       <c r="CY80" s="1"/>
     </row>
-    <row r="81" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>218</v>
       </c>
@@ -13135,7 +13190,7 @@
       <c r="CX81" s="1"/>
       <c r="CY81" s="1"/>
     </row>
-    <row r="82" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>218</v>
       </c>
@@ -13259,7 +13314,7 @@
       <c r="CX82" s="1"/>
       <c r="CY82" s="1"/>
     </row>
-    <row r="83" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>218</v>
       </c>
@@ -13383,7 +13438,7 @@
       <c r="CX83" s="1"/>
       <c r="CY83" s="1"/>
     </row>
-    <row r="84" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>218</v>
       </c>
@@ -13507,7 +13562,7 @@
       <c r="CX84" s="1"/>
       <c r="CY84" s="1"/>
     </row>
-    <row r="85" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>218</v>
       </c>
@@ -13631,7 +13686,7 @@
       <c r="CX85" s="1"/>
       <c r="CY85" s="1"/>
     </row>
-    <row r="86" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>218</v>
       </c>
@@ -13755,7 +13810,7 @@
       <c r="CX86" s="1"/>
       <c r="CY86" s="1"/>
     </row>
-    <row r="87" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>218</v>
       </c>
@@ -13879,7 +13934,7 @@
       <c r="CX87" s="1"/>
       <c r="CY87" s="1"/>
     </row>
-    <row r="88" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>218</v>
       </c>
@@ -14003,7 +14058,7 @@
       <c r="CX88" s="1"/>
       <c r="CY88" s="1"/>
     </row>
-    <row r="89" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>218</v>
       </c>
@@ -14127,7 +14182,7 @@
       <c r="CX89" s="1"/>
       <c r="CY89" s="1"/>
     </row>
-    <row r="90" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>218</v>
       </c>
@@ -14251,7 +14306,7 @@
       <c r="CX90" s="1"/>
       <c r="CY90" s="1"/>
     </row>
-    <row r="91" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>218</v>
       </c>
@@ -14375,7 +14430,7 @@
       <c r="CX91" s="1"/>
       <c r="CY91" s="1"/>
     </row>
-    <row r="92" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>218</v>
       </c>
@@ -14499,7 +14554,7 @@
       <c r="CX92" s="1"/>
       <c r="CY92" s="1"/>
     </row>
-    <row r="93" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>218</v>
       </c>
@@ -14623,7 +14678,7 @@
       <c r="CX93" s="1"/>
       <c r="CY93" s="1"/>
     </row>
-    <row r="94" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>218</v>
       </c>
@@ -14747,7 +14802,7 @@
       <c r="CX94" s="1"/>
       <c r="CY94" s="1"/>
     </row>
-    <row r="95" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>218</v>
       </c>
@@ -14871,7 +14926,7 @@
       <c r="CX95" s="1"/>
       <c r="CY95" s="1"/>
     </row>
-    <row r="96" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>218</v>
       </c>
@@ -14995,7 +15050,7 @@
       <c r="CX96" s="1"/>
       <c r="CY96" s="1"/>
     </row>
-    <row r="97" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>218</v>
       </c>
@@ -15119,7 +15174,7 @@
       <c r="CX97" s="1"/>
       <c r="CY97" s="1"/>
     </row>
-    <row r="98" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>218</v>
       </c>
@@ -15243,7 +15298,7 @@
       <c r="CX98" s="1"/>
       <c r="CY98" s="1"/>
     </row>
-    <row r="99" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>218</v>
       </c>
@@ -15367,7 +15422,7 @@
       <c r="CX99" s="1"/>
       <c r="CY99" s="1"/>
     </row>
-    <row r="100" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>218</v>
       </c>
@@ -15491,7 +15546,7 @@
       <c r="CX100" s="1"/>
       <c r="CY100" s="1"/>
     </row>
-    <row r="101" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>218</v>
       </c>
@@ -15615,7 +15670,7 @@
       <c r="CX101" s="1"/>
       <c r="CY101" s="1"/>
     </row>
-    <row r="102" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>218</v>
       </c>
@@ -15739,7 +15794,7 @@
       <c r="CX102" s="1"/>
       <c r="CY102" s="1"/>
     </row>
-    <row r="103" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>218</v>
       </c>
@@ -15863,7 +15918,7 @@
       <c r="CX103" s="1"/>
       <c r="CY103" s="1"/>
     </row>
-    <row r="104" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>218</v>
       </c>
@@ -15987,7 +16042,7 @@
       <c r="CX104" s="1"/>
       <c r="CY104" s="1"/>
     </row>
-    <row r="105" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:103" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>218</v>
       </c>
@@ -16111,7 +16166,7 @@
       <c r="CX105" s="1"/>
       <c r="CY105" s="1"/>
     </row>
-    <row r="106" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -16216,7 +16271,7 @@
       <c r="CX106" s="1"/>
       <c r="CY106" s="1"/>
     </row>
-    <row r="107" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -16321,7 +16376,7 @@
       <c r="CX107" s="1"/>
       <c r="CY107" s="1"/>
     </row>
-    <row r="108" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:103" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>6</v>
       </c>
@@ -16428,7 +16483,7 @@
       <c r="CX108" s="1"/>
       <c r="CY108" s="1"/>
     </row>
-    <row r="109" spans="1:103" s="38" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:103" s="38" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="37" t="s">
         <v>217</v>
       </c>
@@ -16724,7 +16779,7 @@
       <c r="CW109" s="37"/>
       <c r="CX109" s="37"/>
     </row>
-    <row r="110" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>374</v>
       </c>
@@ -17023,7 +17078,7 @@
       <c r="CX110" s="1"/>
       <c r="CY110" s="1"/>
     </row>
-    <row r="111" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>375</v>
       </c>
@@ -17322,7 +17377,7 @@
       <c r="CX111" s="1"/>
       <c r="CY111" s="1"/>
     </row>
-    <row r="112" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>355</v>
       </c>
@@ -17621,7 +17676,7 @@
       <c r="CX112" s="1"/>
       <c r="CY112" s="1"/>
     </row>
-    <row r="113" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>356</v>
       </c>
@@ -17920,7 +17975,7 @@
       <c r="CX113" s="1"/>
       <c r="CY113" s="1"/>
     </row>
-    <row r="114" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>349</v>
       </c>
@@ -18219,7 +18274,7 @@
       <c r="CX114" s="1"/>
       <c r="CY114" s="1"/>
     </row>
-    <row r="115" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>350</v>
       </c>
@@ -18518,7 +18573,7 @@
       <c r="CX115" s="1"/>
       <c r="CY115" s="1"/>
     </row>
-    <row r="116" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>343</v>
       </c>
@@ -18809,7 +18864,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="117" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>345</v>
       </c>
@@ -19100,7 +19155,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="118" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>321</v>
       </c>
@@ -19388,7 +19443,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="119" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>332</v>
       </c>
@@ -19676,7 +19731,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="120" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>333</v>
       </c>
@@ -19967,7 +20022,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="121" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>322</v>
       </c>
@@ -20255,7 +20310,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="122" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>314</v>
       </c>
@@ -20543,7 +20598,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="123" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>338</v>
       </c>
@@ -20834,7 +20889,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="124" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>339</v>
       </c>
@@ -21122,7 +21177,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="125" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>326</v>
       </c>
@@ -21420,7 +21475,7 @@
       <c r="CX125" s="1"/>
       <c r="CY125" s="1"/>
     </row>
-    <row r="126" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>327</v>
       </c>
@@ -21718,7 +21773,7 @@
       <c r="CX126" s="1"/>
       <c r="CY126" s="1"/>
     </row>
-    <row r="127" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>311</v>
       </c>
@@ -22009,7 +22064,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="128" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>380</v>
       </c>
@@ -22300,7 +22355,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="129" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>381</v>
       </c>
@@ -22591,7 +22646,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="130" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>360</v>
       </c>
@@ -22882,7 +22937,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="131" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
         <v>360</v>
       </c>
@@ -23170,7 +23225,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="132" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
         <v>361</v>
       </c>
@@ -23461,7 +23516,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="133" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="16" t="s">
         <v>361</v>
       </c>
@@ -23749,7 +23804,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="134" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
         <v>312</v>
       </c>
@@ -24040,7 +24095,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="135" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
         <v>312</v>
       </c>
@@ -24328,7 +24383,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="136" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>366</v>
       </c>
@@ -24619,7 +24674,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="137" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>367</v>
       </c>
@@ -24910,7 +24965,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="138" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>496</v>
       </c>
@@ -25204,7 +25259,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="139" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>497</v>
       </c>
@@ -25498,7 +25553,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="140" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>492</v>
       </c>
@@ -25792,7 +25847,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="141" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>493</v>
       </c>
@@ -26086,7 +26141,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="142" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>488</v>
       </c>
@@ -26380,7 +26435,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="143" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>489</v>
       </c>
@@ -26674,7 +26729,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="144" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>484</v>
       </c>
@@ -26968,7 +27023,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="145" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>485</v>
       </c>
@@ -27262,7 +27317,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="146" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="15" t="s">
         <v>298</v>
       </c>
@@ -27556,7 +27611,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="147" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="16" t="s">
         <v>298</v>
       </c>
@@ -27842,7 +27897,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="148" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>300</v>
       </c>
@@ -28136,7 +28191,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="15" t="s">
         <v>300</v>
       </c>
@@ -28427,7 +28482,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="16" t="s">
         <v>300</v>
       </c>
@@ -28715,7 +28770,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="151" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
         <v>228</v>
       </c>
@@ -29006,7 +29061,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="152" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="16" t="s">
         <v>228</v>
       </c>
@@ -29292,7 +29347,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="153" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>834</v>
       </c>
@@ -29584,7 +29639,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="154" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="15" t="s">
         <v>834</v>
       </c>
@@ -29875,7 +29930,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="155" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="16" t="s">
         <v>834</v>
       </c>
@@ -30161,7 +30216,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="156" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>289</v>
       </c>
@@ -30455,7 +30510,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="157" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>289</v>
       </c>
@@ -30749,7 +30804,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="158" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
         <v>289</v>
       </c>
@@ -31037,7 +31092,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="159" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>285</v>
       </c>
@@ -31331,7 +31386,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="160" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
         <v>285</v>
       </c>
@@ -31625,7 +31680,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="161" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="17" t="s">
         <v>285</v>
       </c>
@@ -31909,7 +31964,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="162" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
         <v>285</v>
       </c>
@@ -32195,7 +32250,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="163" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
         <v>835</v>
       </c>
@@ -32489,7 +32544,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="164" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
         <v>835</v>
       </c>
@@ -32777,7 +32832,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="165" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="17" t="s">
         <v>835</v>
       </c>
@@ -33063,7 +33118,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="166" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>475</v>
       </c>
@@ -33357,7 +33412,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>475</v>
       </c>
@@ -33643,7 +33698,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="168" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>476</v>
       </c>
@@ -33937,7 +33992,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="169" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>476</v>
       </c>
@@ -34223,7 +34278,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="170" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>480</v>
       </c>
@@ -34517,7 +34572,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="171" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>481</v>
       </c>
@@ -34811,7 +34866,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="172" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>471</v>
       </c>
@@ -35102,7 +35157,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="173" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>472</v>
       </c>
@@ -35393,7 +35448,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="174" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>467</v>
       </c>
@@ -35687,7 +35742,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="175" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>468</v>
       </c>
@@ -35981,7 +36036,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="176" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>462</v>
       </c>
@@ -36272,7 +36327,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="177" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>463</v>
       </c>
@@ -36563,7 +36618,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="178" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>459</v>
       </c>
@@ -36854,7 +36909,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="179" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>460</v>
       </c>
@@ -37145,7 +37200,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="180" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>455</v>
       </c>
@@ -37436,7 +37491,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="181" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>456</v>
       </c>
@@ -37727,7 +37782,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="182" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>441</v>
       </c>
@@ -38018,7 +38073,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="183" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>449</v>
       </c>
@@ -38309,7 +38364,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="184" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>450</v>
       </c>
@@ -38600,7 +38655,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="185" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>445</v>
       </c>
@@ -38891,7 +38946,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="186" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>446</v>
       </c>
@@ -39182,7 +39237,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="187" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>442</v>
       </c>
@@ -39473,7 +39528,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="188" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>836</v>
       </c>
@@ -39764,7 +39819,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="189" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>439</v>
       </c>
@@ -39787,7 +39842,7 @@
         <v>25.541599999999999</v>
       </c>
       <c r="H189">
-        <v>88.404399999999995</v>
+        <v>-88.404399999999995</v>
       </c>
       <c r="I189">
         <v>3</v>
@@ -40055,7 +40110,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="190" spans="1:103" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:103" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>434</v>
       </c>
@@ -40354,7 +40409,7 @@
       <c r="CX190" s="12"/>
       <c r="CY190" s="36"/>
     </row>
-    <row r="191" spans="1:103" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:103" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>435</v>
       </c>
@@ -40653,7 +40708,7 @@
       <c r="CX191" s="12"/>
       <c r="CY191" s="36"/>
     </row>
-    <row r="192" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>425</v>
       </c>
@@ -40952,7 +41007,7 @@
       <c r="CX192" s="12"/>
       <c r="CY192" s="36"/>
     </row>
-    <row r="193" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>426</v>
       </c>
@@ -41251,7 +41306,7 @@
       <c r="CX193" s="12"/>
       <c r="CY193" s="36"/>
     </row>
-    <row r="194" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>422</v>
       </c>
@@ -41550,7 +41605,7 @@
       <c r="CX194" s="12"/>
       <c r="CY194" s="36"/>
     </row>
-    <row r="195" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>421</v>
       </c>
@@ -41849,7 +41904,7 @@
       <c r="CX195" s="12"/>
       <c r="CY195" s="36"/>
     </row>
-    <row r="196" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>417</v>
       </c>
@@ -42148,7 +42203,7 @@
       <c r="CX196" s="12"/>
       <c r="CY196" s="36"/>
     </row>
-    <row r="197" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>418</v>
       </c>
@@ -42447,7 +42502,7 @@
       <c r="CX197" s="12"/>
       <c r="CY197" s="36"/>
     </row>
-    <row r="198" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>413</v>
       </c>
@@ -42746,7 +42801,7 @@
       <c r="CX198" s="12"/>
       <c r="CY198" s="36"/>
     </row>
-    <row r="199" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>414</v>
       </c>
@@ -43045,7 +43100,7 @@
       <c r="CX199" s="12"/>
       <c r="CY199" s="36"/>
     </row>
-    <row r="200" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>384</v>
       </c>
@@ -43342,7 +43397,7 @@
       <c r="CX200" s="12"/>
       <c r="CY200" s="36"/>
     </row>
-    <row r="201" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:103" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>385</v>
       </c>
@@ -43639,8 +43694,8 @@
       <c r="CX201" s="12"/>
       <c r="CY201" s="36"/>
     </row>
-    <row r="202" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="203" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H203" s="4"/>
       <c r="M203" s="4"/>
       <c r="N203" s="4"/>
@@ -43705,7 +43760,7 @@
       <c r="CF203" s="12"/>
       <c r="CG203" s="12"/>
     </row>
-    <row r="204" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H204" s="4"/>
       <c r="M204" s="4"/>
       <c r="N204" s="4"/>
@@ -43770,7 +43825,7 @@
       <c r="CF204" s="12"/>
       <c r="CG204" s="12"/>
     </row>
-    <row r="205" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H205" s="4"/>
       <c r="M205" s="4"/>
       <c r="N205" s="4"/>
@@ -43835,7 +43890,7 @@
       <c r="CF205" s="12"/>
       <c r="CG205" s="12"/>
     </row>
-    <row r="206" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H206" s="4"/>
       <c r="M206" s="4"/>
       <c r="N206" s="4"/>
@@ -43900,7 +43955,7 @@
       <c r="CF206" s="12"/>
       <c r="CG206" s="12"/>
     </row>
-    <row r="207" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H207" s="4"/>
       <c r="M207" s="4"/>
       <c r="N207" s="4"/>
@@ -43965,7 +44020,7 @@
       <c r="CF207" s="12"/>
       <c r="CG207" s="12"/>
     </row>
-    <row r="208" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H208" s="4"/>
       <c r="M208" s="4"/>
       <c r="N208" s="4"/>
@@ -44030,7 +44085,7 @@
       <c r="CF208" s="12"/>
       <c r="CG208" s="12"/>
     </row>
-    <row r="209" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H209" s="4"/>
       <c r="M209" s="4"/>
       <c r="N209" s="4"/>
@@ -44095,7 +44150,7 @@
       <c r="CF209" s="12"/>
       <c r="CG209" s="12"/>
     </row>
-    <row r="210" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H210" s="4"/>
       <c r="M210" s="4"/>
       <c r="N210" s="4"/>
@@ -44160,7 +44215,7 @@
       <c r="CF210" s="12"/>
       <c r="CG210" s="12"/>
     </row>
-    <row r="211" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H211" s="4"/>
       <c r="M211" s="4"/>
       <c r="N211" s="4"/>
@@ -44225,7 +44280,7 @@
       <c r="CF211" s="12"/>
       <c r="CG211" s="12"/>
     </row>
-    <row r="212" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H212" s="4"/>
       <c r="M212" s="4"/>
       <c r="N212" s="4"/>
@@ -44290,7 +44345,7 @@
       <c r="CF212" s="12"/>
       <c r="CG212" s="12"/>
     </row>
-    <row r="213" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
       <c r="D213" s="12"/>
@@ -44371,7 +44426,7 @@
       <c r="CF213" s="12"/>
       <c r="CG213" s="12"/>
     </row>
-    <row r="214" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H214" s="4"/>
       <c r="M214" s="4"/>
       <c r="N214" s="4"/>
@@ -44436,7 +44491,7 @@
       <c r="CF214" s="12"/>
       <c r="CG214" s="12"/>
     </row>
-    <row r="215" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H215" s="4"/>
       <c r="M215" s="4"/>
       <c r="N215" s="4"/>
@@ -44501,7 +44556,7 @@
       <c r="CF215" s="12"/>
       <c r="CG215" s="12"/>
     </row>
-    <row r="216" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H216" s="4"/>
       <c r="M216" s="4"/>
       <c r="N216" s="4"/>
@@ -44566,84 +44621,84 @@
       <c r="CF216" s="12"/>
       <c r="CG216" s="12"/>
     </row>
-    <row r="217" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="218" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="219" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="220" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="221" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="222" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="223" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="224" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="2:85" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sortState ref="A98:CF189">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A98:CF189">
     <sortCondition ref="A98"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44652,20 +44707,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" customWidth="1"/>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="21"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>838</v>
       </c>
@@ -44676,7 +44731,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>287</v>
       </c>
@@ -44690,7 +44745,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>287</v>
       </c>
@@ -44704,7 +44759,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>287</v>
       </c>
@@ -44718,7 +44773,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>286</v>
       </c>
@@ -44732,7 +44787,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>286</v>
       </c>
@@ -44746,7 +44801,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>286</v>
       </c>
@@ -44760,7 +44815,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>438</v>
       </c>
@@ -44774,55 +44829,55 @@
         <v>839</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="D12"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="D16"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="D18"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="D19"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
       <c r="D20"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="D21"/>
     </row>
@@ -44832,97 +44887,97 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.44140625" customWidth="1"/>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>550</v>
       </c>
@@ -44933,14 +44988,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <sortState ref="A1:A522">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A522">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
